--- a/黑色/铁矿/data_input/日均铁水产量.xlsx
+++ b/黑色/铁矿/data_input/日均铁水产量.xlsx
@@ -78324,10 +78324,10 @@
         <v>172.7707</v>
       </c>
       <c r="D3146" t="n">
-        <v>-19.5681</v>
+        <v>-22.9072</v>
       </c>
       <c r="E3146" t="n">
-        <v>-79.5681</v>
+        <v>-82.9072</v>
       </c>
       <c r="F3146" t="inlineStr"/>
       <c r="G3146" t="inlineStr"/>
@@ -78354,10 +78354,10 @@
         <v>172.5321</v>
       </c>
       <c r="D3147" t="n">
-        <v>-39.5681</v>
+        <v>-34.5595</v>
       </c>
       <c r="E3147" t="n">
-        <v>-109.5681</v>
+        <v>-104.5595</v>
       </c>
       <c r="F3147" t="n">
         <v>47.62</v>
@@ -78371,7 +78371,9 @@
       <c r="I3147" t="n">
         <v>9101.028756571475</v>
       </c>
-      <c r="J3147" t="inlineStr"/>
+      <c r="J3147" t="n">
+        <v>0.0503</v>
+      </c>
       <c r="K3147" t="n">
         <v>-0.1119</v>
       </c>
@@ -78387,14 +78389,24 @@
       <c r="C3148" t="n">
         <v>172.4678</v>
       </c>
-      <c r="D3148" t="inlineStr"/>
-      <c r="E3148" t="inlineStr"/>
+      <c r="D3148" t="n">
+        <v>-60.2142</v>
+      </c>
+      <c r="E3148" t="n">
+        <v>-90.21420000000001</v>
+      </c>
       <c r="F3148" t="inlineStr"/>
       <c r="G3148" t="inlineStr"/>
-      <c r="H3148" t="inlineStr"/>
+      <c r="H3148" t="n">
+        <v>-326.8</v>
+      </c>
       <c r="I3148" t="inlineStr"/>
-      <c r="J3148" t="inlineStr"/>
-      <c r="K3148" t="inlineStr"/>
+      <c r="J3148" t="n">
+        <v>0.0489</v>
+      </c>
+      <c r="K3148" t="n">
+        <v>-0.096</v>
+      </c>
       <c r="L3148" t="inlineStr"/>
     </row>
     <row r="3149">
@@ -78405,14 +78417,24 @@
       <c r="C3149" t="n">
         <v>172.5035</v>
       </c>
-      <c r="D3149" t="inlineStr"/>
-      <c r="E3149" t="inlineStr"/>
+      <c r="D3149" t="n">
+        <v>-50.2142</v>
+      </c>
+      <c r="E3149" t="n">
+        <v>-60.2142</v>
+      </c>
       <c r="F3149" t="inlineStr"/>
       <c r="G3149" t="inlineStr"/>
-      <c r="H3149" t="inlineStr"/>
+      <c r="H3149" t="n">
+        <v>-330</v>
+      </c>
       <c r="I3149" t="inlineStr"/>
-      <c r="J3149" t="inlineStr"/>
-      <c r="K3149" t="inlineStr"/>
+      <c r="J3149" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="K3149" t="n">
+        <v>-0.07630000000000001</v>
+      </c>
       <c r="L3149" t="inlineStr"/>
     </row>
     <row r="3150">
